--- a/resources/app-mry/content/pricing/free_plan.xlsx
+++ b/resources/app-mry/content/pricing/free_plan.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mehery Website\mehery.site\resources\app-mry\content\pricing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA684F-0B00-4855-BD46-81F52185ED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -104,20 +109,20 @@
     <t>Up to 10</t>
   </si>
   <si>
-    <t>Up to 1000</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Up to 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -142,110 +147,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -553,40 +465,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97c063fa-d89c-4990-be7f-9d5ff0779c49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C063FA-D89C-4990-BE7F-9D5FF0779C49}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="38.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="20.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="21.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="20.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="19.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="18.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
     <col min="10" max="10" width="37" customWidth="1"/>
     <col min="11" max="11" width="38" customWidth="1"/>
-    <col min="12" max="12" width="37.8571428571429" customWidth="1"/>
-    <col min="13" max="13" width="38.8571428571429" customWidth="1"/>
+    <col min="12" max="12" width="37.88671875" customWidth="1"/>
+    <col min="13" max="13" width="38.88671875" customWidth="1"/>
     <col min="14" max="14" width="45" customWidth="1"/>
     <col min="15" max="15" width="46" customWidth="1"/>
     <col min="16" max="16" width="48" customWidth="1"/>
     <col min="17" max="17" width="49" customWidth="1"/>
-    <col min="18" max="18" width="16.7142857142857" customWidth="1"/>
-    <col min="19" max="19" width="21.5714285714286" customWidth="1"/>
-    <col min="20" max="20" width="22.5714285714286" customWidth="1"/>
-    <col min="21" max="21" width="26.2857142857143" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.5546875" customWidth="1"/>
+    <col min="20" max="20" width="22.5546875" customWidth="1"/>
+    <col min="21" max="21" width="26.33203125" customWidth="1"/>
     <col min="22" max="22" width="31" customWidth="1"/>
     <col min="23" max="23" width="28" customWidth="1"/>
-    <col min="24" max="24" width="30.1428571428571" customWidth="1"/>
+    <col min="24" max="24" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12.75">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="12.75">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -695,10 +609,10 @@
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -716,22 +630,22 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
         <v>30</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>30</v>
       </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" t="s">
-        <v>31</v>
-      </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
